--- a/data/trans_camb/P1413-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1413-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.056077521542356</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>15.05118249207954</v>
+        <v>15.05118249207953</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.5676426769232107</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.30376543248708</v>
+        <v>-7.340882070114785</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.022791592369108</v>
+        <v>-9.25174185698266</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7302032942824188</v>
+        <v>0.6107876971466211</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5076081759547632</v>
+        <v>1.003107830314372</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.88423222050521</v>
+        <v>-4.561383510418667</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.1835174984375</v>
+        <v>11.20959589535106</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.255816482591415</v>
+        <v>-2.181433751845759</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.989577036628871</v>
+        <v>-6.110337656877624</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.18068908341533</v>
+        <v>7.43079191916247</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04294937870342797</v>
+        <v>-0.1385990889221035</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.081621987779626</v>
+        <v>-2.205947092319837</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.391531481883556</v>
+        <v>8.460346812658104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.160704278219631</v>
+        <v>8.790865840278201</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.053553508031867</v>
+        <v>3.45639948296519</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.89269744246475</v>
+        <v>18.82994843049915</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.268380287224216</v>
+        <v>3.305422142382865</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.6621565133679763</v>
+        <v>-1.03575500602348</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.66777224553189</v>
+        <v>12.68704679310881</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.06594769584404217</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9398844164689701</v>
+        <v>0.9398844164689698</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.03675569148550554</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4393679031753329</v>
+        <v>-0.4353705427279029</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5485155967355138</v>
+        <v>-0.555032900022409</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0368123629023097</v>
+        <v>0.03301172681609547</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02757745590973512</v>
+        <v>0.05827566412125722</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2792732880721773</v>
+        <v>-0.2560747775269051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6028291361228514</v>
+        <v>0.5871935473921696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1335790840149713</v>
+        <v>-0.1336239644033446</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3593666316713479</v>
+        <v>-0.3635367237043095</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4223713351245325</v>
+        <v>0.4418687965166316</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.001118093256074024</v>
+        <v>-0.009959807499821763</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1566097580780896</v>
+        <v>-0.1580687409739614</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6255403895138134</v>
+        <v>0.6406011079473658</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6506606579134353</v>
+        <v>0.6201186339387141</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2157251082761311</v>
+        <v>0.2456918240090395</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.38966588590305</v>
+        <v>1.352708306634145</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2347648082763639</v>
+        <v>0.2298270606849293</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.04460877979637361</v>
+        <v>-0.07512288440790671</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9160221478913524</v>
+        <v>0.8917126397524132</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-5.58503757554212</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.236459221565488</v>
+        <v>3.236459221565491</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.131806702095301</v>
@@ -878,7 +878,7 @@
         <v>-5.879787085053924</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>7.884172493645799</v>
+        <v>7.884172493645794</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.525636075744885</v>
+        <v>-6.011662115724421</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.611700398594575</v>
+        <v>-8.434910988071682</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2111391648505932</v>
+        <v>-0.2233269106381735</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.836784419788937</v>
+        <v>-5.723180200543792</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.915899772832065</v>
+        <v>-9.588089054511267</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.662441676710253</v>
+        <v>8.985739886114786</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.775665780127217</v>
+        <v>-4.885312127195383</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.055642055257699</v>
+        <v>-8.377434419121769</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.356066673329043</v>
+        <v>5.393512441676033</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3232654702865839</v>
+        <v>0.09783256056108236</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.751656191926578</v>
+        <v>-2.658252736377333</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.202291361761281</v>
+        <v>6.389729862096814</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.409283461051559</v>
+        <v>1.482855060716084</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.890780958256388</v>
+        <v>-2.46783373244015</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.84042146216255</v>
+        <v>16.22222564801264</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.12211830210756</v>
+        <v>-0.04898004283331239</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.674506871685244</v>
+        <v>-3.775637569987637</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.36290507878012</v>
+        <v>10.48532257182103</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4141652833683178</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2400035868119589</v>
+        <v>0.2400035868119591</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1080699385649174</v>
@@ -974,7 +974,7 @@
         <v>-0.3147556041301123</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6274513461291448</v>
+        <v>0.6274513461291445</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1551866349821406</v>
@@ -983,7 +983,7 @@
         <v>-0.3538572181882412</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4744850971575896</v>
+        <v>0.4744850971575893</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4292698578990307</v>
+        <v>-0.4022938561810741</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5692411348458259</v>
+        <v>-0.5503523761631889</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01667649482029774</v>
+        <v>-0.01523406917284558</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2669954144674799</v>
+        <v>-0.2687643507507653</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4523864436787391</v>
+        <v>-0.4486632115693546</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4033074057441174</v>
+        <v>0.412770659221134</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2679455756934261</v>
+        <v>-0.2757346904989944</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4507718523658678</v>
+        <v>-0.4582223873451053</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2987010499236538</v>
+        <v>0.2956817293063641</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.0237790316141424</v>
+        <v>0.008845191842065316</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2274961285427015</v>
+        <v>-0.2213533270719593</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4969503820350505</v>
+        <v>0.5326096486021886</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.08088688837574265</v>
+        <v>0.08590184843873426</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1598306422370416</v>
+        <v>-0.1383104574550298</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8905902906133613</v>
+        <v>0.9301555827525155</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.003693940666798103</v>
+        <v>-0.004082503530932594</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2385323268660712</v>
+        <v>-0.2418020203942892</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.692177033110676</v>
+        <v>0.6814542490238538</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-15.7511078227837</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.30565213821741</v>
+        <v>6.305652138217416</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-12.52406894201366</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.31762267498737</v>
+        <v>-17.46934832006927</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.49155692414659</v>
+        <v>-17.63815963182294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.517304811995905</v>
+        <v>-4.083810683860619</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-15.76621315516532</v>
+        <v>-15.40319636203883</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-19.96180978840819</v>
+        <v>-19.8515803268984</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.694881126103796</v>
+        <v>1.67846824686824</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-15.47866474263002</v>
+        <v>-15.30615787609908</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-17.4447708749063</v>
+        <v>-17.36789803432594</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.09479066723023212</v>
+        <v>0.1865403801584153</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.02671807222012</v>
+        <v>-9.621394333165698</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-10.01894955150494</v>
+        <v>-9.808194752639483</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.441734137170361</v>
+        <v>4.783230689284017</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-7.025118750513677</v>
+        <v>-7.143826215646267</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-12.16159030310501</v>
+        <v>-11.65257297460802</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.38643686675352</v>
+        <v>10.45550521233607</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-9.707644486094651</v>
+        <v>-9.740024093407841</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-12.00422279464345</v>
+        <v>-11.93336232976861</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.415467886239136</v>
+        <v>6.373738784536491</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.596251760004903</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.238697888916257</v>
+        <v>0.2386978889162573</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.5369903532878351</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7738078039327513</v>
+        <v>-0.7717540676456569</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7764241091379491</v>
+        <v>-0.779271346709011</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2011282214418663</v>
+        <v>-0.1834143325707251</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5402311074955519</v>
+        <v>-0.5312795660145674</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6885242082934022</v>
+        <v>-0.6899206177099505</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05766122424660393</v>
+        <v>0.05559386797938207</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6164753211974836</v>
+        <v>-0.6191040211070514</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.699367824160893</v>
+        <v>-0.6946484676885473</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.002203870747682708</v>
+        <v>0.007565054753515058</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.56909290258768</v>
+        <v>-0.5436913554804379</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.5566142388248075</v>
+        <v>-0.5542248910522819</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2480672401198581</v>
+        <v>0.2608493171013705</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.2886548559347836</v>
+        <v>-0.2886995994371447</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.4959353281563141</v>
+        <v>-0.4867554611513822</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.425006432266403</v>
+        <v>0.433098886518217</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.4445950776613133</v>
+        <v>-0.4432510838125148</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.5487619095395022</v>
+        <v>-0.5505673078614275</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3000663645683507</v>
+        <v>0.297585960331949</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-7.817983535771712</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.533723756415004</v>
+        <v>1.533723756415001</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.00091010342633</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.92938300016321</v>
+        <v>-11.70144730993608</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.75368741256551</v>
+        <v>-10.59989083410431</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.081513625610118</v>
+        <v>-1.585661778335744</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3267327874567882</v>
+        <v>-0.3449464655742629</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.244043218213314</v>
+        <v>-3.639618307816799</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.044517236325728</v>
+        <v>7.99477168443744</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.991430874522818</v>
+        <v>-5.02642288948015</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.873861663968989</v>
+        <v>-6.222637421887703</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.173911500594764</v>
+        <v>4.368385309383036</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.147539097827552</v>
+        <v>-5.724934183184741</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.994680146411678</v>
+        <v>-4.515157630600496</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.909954576482126</v>
+        <v>5.232890690794053</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.309330475778071</v>
+        <v>6.44492111986111</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.32058205455529</v>
+        <v>3.107860566814545</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.29752360289687</v>
+        <v>14.44985481099504</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.4741273011432929</v>
+        <v>-0.3324979204387254</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.401810604141441</v>
+        <v>-1.6555547133309</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.921451698252874</v>
+        <v>8.826882507952353</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4598006740472635</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.09020321081199473</v>
+        <v>0.09020321081199456</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1851802853628328</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6462180665703297</v>
+        <v>-0.6329339240044287</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5813281904830271</v>
+        <v>-0.5801670761321376</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1138441618397449</v>
+        <v>-0.08468202589915569</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02780660675666183</v>
+        <v>-0.01979607460806295</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1858260646694774</v>
+        <v>-0.199964610385955</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4527773509988535</v>
+        <v>0.4409587022413207</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2830572198577985</v>
+        <v>-0.280608983146784</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3423346747387747</v>
+        <v>-0.3505419975575882</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2334620878568979</v>
+        <v>0.2385579735314159</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3903712486727582</v>
+        <v>-0.373719157841028</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3146058119865043</v>
+        <v>-0.2863916481006926</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3225027585593178</v>
+        <v>0.350664262792599</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4370570922973329</v>
+        <v>0.4403245018429326</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2300504108214486</v>
+        <v>0.2116117315142906</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9877785487904692</v>
+        <v>1.01834257634423</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.03038006904207599</v>
+        <v>-0.01827024266183471</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.100092806108338</v>
+        <v>-0.1050114174972702</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.572232239739126</v>
+        <v>0.5680250639029205</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-5.340418799283678</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>11.36137186922807</v>
+        <v>11.36137186922808</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-4.064974707535255</v>
@@ -1520,7 +1520,7 @@
         <v>-6.635903669587606</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>7.012548860761641</v>
+        <v>7.012548860761636</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.681516683518431</v>
+        <v>-8.700826026289418</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.584483346354375</v>
+        <v>-9.557750949415313</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5241594416072171</v>
+        <v>0.4798565368340457</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.991918371534685</v>
+        <v>-2.792947881572788</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.978523048715181</v>
+        <v>-7.263004217022146</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>9.44251045014453</v>
+        <v>9.494904724380062</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.338244833321701</v>
+        <v>-5.373129774314584</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.901507126246393</v>
+        <v>-7.867802248375644</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.663639422720211</v>
+        <v>5.698619557546883</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.596035709460838</v>
+        <v>-5.450823565116044</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-6.355488338273818</v>
+        <v>-6.38807115958283</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.385340342902444</v>
+        <v>4.040173583540071</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8000359575584898</v>
+        <v>0.7664172219601502</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-3.519197255170162</v>
+        <v>-3.564284392161087</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.14831164383488</v>
+        <v>13.44661288881157</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.885629106314433</v>
+        <v>-2.80761807492027</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-5.382944837509069</v>
+        <v>-5.429821804595076</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.416463257998066</v>
+        <v>8.440254836056369</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.2775424709975345</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5904524234935262</v>
+        <v>0.5904524234935268</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2291924647865672</v>
@@ -1625,7 +1625,7 @@
         <v>-0.3741472524539242</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3953833599148552</v>
+        <v>0.3953833599148548</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5086110283759897</v>
+        <v>-0.511840605833535</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5626901108576771</v>
+        <v>-0.5619006347939896</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.03239554273501855</v>
+        <v>0.0306461380816729</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1499484157988607</v>
+        <v>-0.1389005384868293</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3474075568756422</v>
+        <v>-0.3621486145938123</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4652845572200422</v>
+        <v>0.4659596874717798</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.290236239791675</v>
+        <v>-0.2909911225499706</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4251647713000814</v>
+        <v>-0.4262225087466893</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3094198647854285</v>
+        <v>0.3062053076882479</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3639505837078729</v>
+        <v>-0.3560331550787582</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.4173263125205601</v>
+        <v>-0.4192027050622816</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2888159833331937</v>
+        <v>0.2685312560659265</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.04404664841476543</v>
+        <v>0.04045969770909651</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1898077586816076</v>
+        <v>-0.194601651811518</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7279866425013184</v>
+        <v>0.7281739528661447</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.166974806608747</v>
+        <v>-0.1621197107254959</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3139102047828223</v>
+        <v>-0.3175247769438817</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4924517842045966</v>
+        <v>0.4915356513790248</v>
       </c>
     </row>
     <row r="34">
